--- a/Documents/Part list.xlsx
+++ b/Documents/Part list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Qté</t>
   </si>
@@ -91,6 +91,54 @@
   </si>
   <si>
     <t>Farnell</t>
+  </si>
+  <si>
+    <t>Boîtier plastique 250 x 200 x 64 mm gris ABS</t>
+  </si>
+  <si>
+    <t>Distrelec.ch  </t>
+  </si>
+  <si>
+    <t>300-43-294</t>
+  </si>
+  <si>
+    <t>Boîte en plastique</t>
+  </si>
+  <si>
+    <t>300-25-226</t>
+  </si>
+  <si>
+    <t>Connectique USB</t>
+  </si>
+  <si>
+    <t>Adaptateur USB dans un boîtier XLR 1 x USB 2.0 A, 1 x USB 2.0 B, CP30209NX</t>
+  </si>
+  <si>
+    <t>Adaptateur pour montage panneau RJ45, boîtier XLR, sans blindage, CP30220X</t>
+  </si>
+  <si>
+    <t>300-17-858</t>
+  </si>
+  <si>
+    <t>Connectique ethernet</t>
+  </si>
+  <si>
+    <t>XLR Connecteur d'appareil 3 N/A noir, ACM, Cliff</t>
+  </si>
+  <si>
+    <t>142-31-908</t>
+  </si>
+  <si>
+    <t>Connectique alimentation</t>
+  </si>
+  <si>
+    <t>XLR Prise de câble 3 N/A noir, APF, Cliff</t>
+  </si>
+  <si>
+    <t>142-31-858</t>
+  </si>
+  <si>
+    <t>Prise alimentation</t>
   </si>
 </sst>
 </file>
@@ -98,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;fr.&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +178,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,31 +213,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;fr.&quot;\ #,##0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;fr.&quot;\ #,##0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -194,8 +284,8 @@
     <tableColumn id="3" name="Référence"/>
     <tableColumn id="4" name="Description"/>
     <tableColumn id="5" name="Fournisseur"/>
-    <tableColumn id="9" name="Prix unitaire" dataDxfId="1"/>
-    <tableColumn id="10" name="Prix" dataDxfId="0">
+    <tableColumn id="9" name="Prix unitaire" dataDxfId="3"/>
+    <tableColumn id="10" name="Prix" dataDxfId="2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -493,16 +583,18 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -646,53 +738,132 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16.2</v>
+      </c>
       <c r="G7" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.75</v>
+      </c>
       <c r="G8" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.8</v>
+      </c>
       <c r="G9" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="G10" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.85</v>
+      </c>
       <c r="G11" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>0</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -708,7 +879,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6">
         <f>SUM(G2:G13)</f>
-        <v>1475.4</v>
+        <v>1660.65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,11 +901,16 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7" display="Adaptateur USB "/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documents/Part list.xlsx
+++ b/Documents/Part list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Qté</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Prise alimentation</t>
+  </si>
+  <si>
+    <t>Liste des pièces - P1699 - MCT 2017 - Francis Le Roy</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,10 +189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -225,13 +235,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -254,17 +273,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -276,18 +289,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G14" totalsRowShown="0">
-  <autoFilter ref="A1:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:G15" totalsRowShown="0">
+  <autoFilter ref="A2:G15"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Qté"/>
     <tableColumn id="2" name="Nom"/>
     <tableColumn id="3" name="Référence"/>
     <tableColumn id="4" name="Description"/>
     <tableColumn id="5" name="Fournisseur"/>
-    <tableColumn id="9" name="Prix unitaire" dataDxfId="3"/>
-    <tableColumn id="10" name="Prix" dataDxfId="2">
-      <calculatedColumnFormula>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="9" name="Prix unitaire" dataDxfId="1"/>
+    <tableColumn id="10" name="Prix" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,68 +591,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="68.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>49.9</v>
-      </c>
-      <c r="G2" s="2">
-        <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>249.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,92 +647,92 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>97.85</v>
+        <v>43.9</v>
       </c>
       <c r="G3" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>489.25</v>
+        <v>219.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>55</v>
+        <v>97.85</v>
       </c>
       <c r="G4" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>330</v>
+        <v>489.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.72</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>55</v>
       </c>
       <c r="G5" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2520785</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.33</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.72</v>
       </c>
       <c r="G6" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>46.65</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,23 +740,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2520785</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>16.2</v>
+        <v>9.33</v>
       </c>
       <c r="G7" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>81</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,23 +764,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>6.75</v>
+        <v>16.2</v>
       </c>
       <c r="G8" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>33.75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -790,23 +788,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>5.8</v>
+        <v>6.75</v>
       </c>
       <c r="G9" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>29</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,23 +812,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2">
-        <v>2.4500000000000002</v>
+        <v>5.8</v>
       </c>
       <c r="G10" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
-        <v>12.25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,53 +836,73 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2">
-        <v>5.85</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G11" s="2">
         <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="G12" s="2">
+        <f>Tableau1[[#This Row],[Qté]]*Tableau1[[#This Row],[Prix unitaire]]</f>
         <v>29.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>SUM(A2:A5)</f>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>SUM(A3:A6)</f>
         <v>516</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <f>SUM(G2:G13)</f>
-        <v>1660.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <f>SUM(G3:G12)</f>
+        <v>1630.65</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
@@ -895,20 +913,23 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7" display="Adaptateur USB "/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7" display="Adaptateur USB "/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId11"/>
   <tableParts count="1">
     <tablePart r:id="rId12"/>
   </tableParts>
